--- a/biology/Botanique/Rosa_sect._Pimpinellifoliae/Rosa_sect._Pimpinellifoliae.xlsx
+++ b/biology/Botanique/Rosa_sect._Pimpinellifoliae/Rosa_sect._Pimpinellifoliae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Pimpinellifoliae
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,7 +553,9 @@
           <t>Origine et distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les rosiers « pimprenelle » sont très rustiques et ont de nombreux hybrides spontanés. Ils sont originaires d'Europe, de Perse et d'Asie sous deux formes, Rosa Pimpinellifoliae et Rosa Pimpinellifoliae type spinosissima
 Parmi les Rosa Pimpinellifoliae nous pouvons citer Altaica et Lutea jaunes, Luteola jaune pâle, Hispida blanc, Rubra rose, Minima d'à peine 15 cm de haut et sans oublier le Rosa Pimpinellifoliae 'Myriacantha', le spinolea de Pline l'Ancien, le rosier à 1 000 épines, haut de 50 cm à 1 m à fleurs blanches.
@@ -571,7 +587,9 @@
           <t>Principales espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rosa ecae Aitch. (synonyme Rosa xanthina var. ecae)
 Rosa foetida Herrm. (synonyme Rosa lutea Mill.), le rosier fétide ou ronce d'Autriche
@@ -615,6 +633,8 @@
         </is>
       </c>
       <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
